--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2083936291178867</v>
+        <v>0.2050780531927783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.65739228676112</v>
+        <v>0.6460245583484259</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7879080718217591</v>
+        <v>0.7777847256232983</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2050780531927783</v>
+        <v>0.2079419971553433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6460245583484259</v>
+        <v>0.6560375972945557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7777847256232983</v>
+        <v>0.7859564650814529</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2079419971553433</v>
+        <v>0.2066020888596937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6560375972945557</v>
+        <v>0.65154864026669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7859564650814529</v>
+        <v>0.7816674419764436</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1143481684417881</v>
+        <v>5.404441825459585</v>
       </c>
       <c r="C2" t="n">
         <v>0.3666287259309587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2365603670313432</v>
+        <v>0.1372190763098749</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1368284151220056</v>
+        <v>6.682454329221001</v>
       </c>
       <c r="C3" t="n">
         <v>0.4470862011848273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3604797022516147</v>
+        <v>0.1693884939604232</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.11262511767938</v>
+        <v>5.361778609188283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3613423697353557</v>
+        <v>0.3639625490136446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.477481443350151</v>
+        <v>0.1365590114409733</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1198028418068027</v>
+        <v>5.66392874080918</v>
       </c>
       <c r="C5" t="n">
         <v>0.385295373852196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5077400872868494</v>
+        <v>0.1432468076531684</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1166486277711673</v>
+        <v>5.526119767636368</v>
       </c>
       <c r="C6" t="n">
         <v>0.3747268354309398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4967991013737798</v>
+        <v>0.1401600683078464</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1237189547861066</v>
+        <v>5.938250361054656</v>
       </c>
       <c r="C7" t="n">
         <v>0.4044075534586413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5308802669785225</v>
+        <v>0.1497752598127478</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1359435292314192</v>
+        <v>6.627338690038176</v>
       </c>
       <c r="C8" t="n">
         <v>0.4434209156036628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5961409627127481</v>
+        <v>0.1681870152821778</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1367169693347907</v>
+        <v>6.669139550278139</v>
       </c>
       <c r="C9" t="n">
         <v>0.4464383764561034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6008001121313069</v>
+        <v>0.169501483643646</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.762983937842158</v>
+        <v>73.99057791550629</v>
       </c>
       <c r="C10" t="n">
         <v>25.47742626953379</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4774925312169</v>
+        <v>5.682140655128719</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2066020888596937</v>
+        <v>8.745216771852101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.65154864026669</v>
+        <v>0.647301142715747</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7816674419764436</v>
+        <v>0.2195843188856447</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2635722402136577</v>
+        <v>11.03638246226973</v>
       </c>
       <c r="C12" t="n">
         <v>0.8472214639907957</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9605129130947995</v>
+        <v>0.2709859078602612</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1945487994876215</v>
+        <v>8.304299303121958</v>
       </c>
       <c r="C13" t="n">
         <v>0.6100384928132049</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7458027139149026</v>
+        <v>0.2104105241684864</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.404441825459585</v>
+        <v>5.404441825389132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3666287259309587</v>
+        <v>0.3666287259262914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1372190763098749</v>
+        <v>0.1372190763086192</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.682454329221001</v>
+        <v>6.682417817422428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4470862011848273</v>
+        <v>0.4470844376728496</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1693884939604232</v>
+        <v>0.1693880425360174</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.361778609188283</v>
+        <v>5.361778608930972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3639625490136446</v>
+        <v>0.363962548995299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1365590114409733</v>
+        <v>0.1365590114348304</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.66392874080918</v>
+        <v>5.663937401002308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.385295373852196</v>
+        <v>0.3852960213627437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1432468076531684</v>
+        <v>0.1432469173407804</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.526119767636368</v>
+        <v>5.558676330794077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3747268354309398</v>
+        <v>0.3771978997348751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1401600683078464</v>
+        <v>0.1407623071656248</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.938250361054656</v>
+        <v>5.925641778410664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4044075534586413</v>
+        <v>0.4035511045378388</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1497752598127478</v>
+        <v>0.1494455552683305</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.627338690038176</v>
+        <v>6.628182313654435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4434209156036628</v>
+        <v>0.4434885473283481</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1681870152821778</v>
+        <v>0.1682045083951918</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.669139550278139</v>
+        <v>6.665732544221105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4464383764561034</v>
+        <v>0.4462438387139471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169501483643646</v>
+        <v>0.1694101025609389</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.99057791550629</v>
+        <v>5.363708606419194</v>
       </c>
       <c r="C10" t="n">
-        <v>25.47742626953379</v>
+        <v>0.4669047839131917</v>
       </c>
       <c r="D10" t="n">
-        <v>5.682140655128719</v>
+        <v>0.1234941320096317</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.745216771852101</v>
+        <v>8.704148025795142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.647301142715747</v>
+        <v>0.6438218451138125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2195843188856447</v>
+        <v>0.2188579346501135</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.03638246226973</v>
+        <v>8.827186478909011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8472214639907957</v>
+        <v>0.6542127967384361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2709859078602612</v>
+        <v>0.2204342775359576</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.304299303121958</v>
+        <v>9.983826698150192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6100384928132049</v>
+        <v>0.7539379058539007</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2104105241684864</v>
+        <v>0.245572965994694</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.704148025795142</v>
+        <v>8.686293324061499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6438218451138125</v>
+        <v>0.6423070772940653</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2188579346501135</v>
+        <v>0.2184765423561357</v>
       </c>
     </row>
     <row r="12">
